--- a/assets/Excel/Effects/EffectTemplates.xlsx
+++ b/assets/Excel/Effects/EffectTemplates.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
   <si>
     <t>Index</t>
   </si>
@@ -27,10 +27,13 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
-    <t>isDuration</t>
+    <t>isTenporary</t>
   </si>
   <si>
     <t>Duration</t>
@@ -66,10 +69,13 @@
     <t>效果名字，string，格式：属性_改变_特性</t>
   </si>
   <si>
+    <t>效果描述</t>
+  </si>
+  <si>
     <t>类型，见Effects.ts</t>
   </si>
   <si>
-    <t>是否是时间持续性效果，boolen</t>
+    <t>完成后是否会恢复原值，boolen</t>
   </si>
   <si>
     <t>效果的持续时间，number</t>
@@ -81,7 +87,7 @@
     <t>最大层数，number</t>
   </si>
   <si>
-    <t>属性改变量，cc.Vec4</t>
+    <t>属性改变量，cc.Vec3</t>
   </si>
   <si>
     <t>是否周期，boolen</t>
@@ -114,16 +120,28 @@
     <t>HP_DOWN_NORMAL</t>
   </si>
   <si>
-    <t>C_HP</t>
+    <t>普通的单次扣血deltaV</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>10,0,0,0</t>
+  </si>
+  <si>
+    <t>HP_DOWN_OVERTIME</t>
+  </si>
+  <si>
+    <t>一段时间内每cycleTime扣deltaV血</t>
   </si>
   <si>
     <t>1,0,0,0</t>
   </si>
   <si>
-    <t>HP_DOWN_OVERTIME</t>
-  </si>
-  <si>
     <t>HP_DOWN_DELAY</t>
+  </si>
+  <si>
+    <t>延迟duration时间以后扣血deltaV</t>
   </si>
 </sst>
 </file>
@@ -131,8 +149,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -145,11 +163,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,12 +247,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -175,14 +261,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -192,46 +270,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,30 +299,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,31 +316,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,145 +496,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,30 +507,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -527,6 +521,33 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,20 +593,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,10 +615,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,133 +627,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1097,31 +1115,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="17.2222222222222" style="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.8888888888889" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.2222222222222" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5555555555556" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1111111111111" style="1" customWidth="1"/>
-    <col min="9" max="9" width="53.3333333333333" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.4444444444444" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.6666666666667" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20.2222222222222" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.4444444444444" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="39.7777777777778" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.8888888888889" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.2222222222222" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="10" max="10" width="53.3333333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.4444444444444" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6666666666667" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.2222222222222" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.4444444444444" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1161,250 +1180,271 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2">
         <v>1001</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1">
         <v>1002</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="1" t="b">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F6" s="1">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="1" t="b">
+      <c r="L6" s="1">
         <v>1</v>
       </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
+      <c r="M6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1">
         <v>1003</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="1" t="b">
+      <c r="F7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
+      <c r="H7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
         <v>0</v>
       </c>
     </row>

--- a/assets/Excel/Effects/EffectTemplates.xlsx
+++ b/assets/Excel/Effects/EffectTemplates.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="63">
   <si>
     <t>Index</t>
   </si>
@@ -142,6 +142,69 @@
   </si>
   <si>
     <t>延迟duration时间以后扣血deltaV</t>
+  </si>
+  <si>
+    <t>HP_UP_FIXEDVALUE</t>
+  </si>
+  <si>
+    <t>固定值加血</t>
+  </si>
+  <si>
+    <t>MaxHP</t>
+  </si>
+  <si>
+    <t>HP_UP_PERCENTAGE</t>
+  </si>
+  <si>
+    <t>百分比加血</t>
+  </si>
+  <si>
+    <t>0,0,0,0</t>
+  </si>
+  <si>
+    <t>ATTACKSPEED_UP_PERCENTAGE</t>
+  </si>
+  <si>
+    <t>按百分比提高攻击速度</t>
+  </si>
+  <si>
+    <t>AttackSpeed</t>
+  </si>
+  <si>
+    <t>MaxHP_UP_FIXEDVALUE</t>
+  </si>
+  <si>
+    <t>固定值加最大血量dV</t>
+  </si>
+  <si>
+    <t>3,0,0,0</t>
+  </si>
+  <si>
+    <t>MaxHP_UP_PERCENTAGE</t>
+  </si>
+  <si>
+    <t>百分比加最大血量</t>
+  </si>
+  <si>
+    <t>hasHitBox_INVINCIBLE</t>
+  </si>
+  <si>
+    <t>一段时间无敌（没有碰撞）</t>
+  </si>
+  <si>
+    <t>hasHitBox</t>
+  </si>
+  <si>
+    <t>Color_ONHIT</t>
+  </si>
+  <si>
+    <t>被攻击时改变颜色一段时间</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>50,50,50,0</t>
   </si>
 </sst>
 </file>
@@ -149,15 +212,101 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -171,22 +320,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,59 +367,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,51 +375,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -316,25 +391,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,43 +535,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,109 +559,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,6 +582,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -528,24 +618,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -554,11 +626,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,17 +648,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,6 +671,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -615,10 +690,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,137 +702,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -766,6 +841,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1115,13 +1199,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.2222222222222" style="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
@@ -1446,6 +1530,335 @@
       </c>
       <c r="N7" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1004</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1005</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" ht="28.8" spans="1:15">
+      <c r="A10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1101</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" ht="28.8" spans="1:15">
+      <c r="A11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1201</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" ht="28.8" spans="1:15">
+      <c r="A12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1202</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" ht="28.8" spans="1:15">
+      <c r="A13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1301</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>5</v>
+      </c>
+      <c r="H13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1401</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2</v>
+      </c>
+      <c r="H14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
